--- a/biology/Botanique/Sphagnidae/Sphagnidae.xlsx
+++ b/biology/Botanique/Sphagnidae/Sphagnidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Sphagnidae forment une sous-classe de mousses ; elle est abandonnée dans les classifications modernes où la classe des Sphagnopsida a pour taxon inférieur le seul ordre des Sphagnales[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sphagnidae forment une sous-classe de mousses ; elle est abandonnée dans les classifications modernes où la classe des Sphagnopsida a pour taxon inférieur le seul ordre des Sphagnales. 
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Évolution
-L'étude de la structure des gamétophytes des Sphagnidae et de leurs séquences d’ADN semble montrer qu'elles se sont séparées il y a fort longtemps de la lignée principale des autres mousses. On ne sait pas à quelle époque a eu lieu cette séparation, mais des fossiles du Permien (- 290 MA), les Protosphagnales, présentent de nombreuses ressemblances avec les Sphagnidae actuelles[2]. 
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étude de la structure des gamétophytes des Sphagnidae et de leurs séquences d’ADN semble montrer qu'elles se sont séparées il y a fort longtemps de la lignée principale des autres mousses. On ne sait pas à quelle époque a eu lieu cette séparation, mais des fossiles du Permien (- 290 MA), les Protosphagnales, présentent de nombreuses ressemblances avec les Sphagnidae actuelles. 
 </t>
         </is>
       </c>
